--- a/Modele/Sanwa PC5000a.xlsx
+++ b/Modele/Sanwa PC5000a.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -98,11 +98,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,6 +156,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -477,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G37"/>
+  <dimension ref="A12:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +538,35 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -525,238 +599,430 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
+      <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>49.9948</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-0.0052</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>249.993</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0.007</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>449.9895</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>449.9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-450.0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-449.9645</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-449.9</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0.0645</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6" t="n"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0.4999</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2.4999</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2.4998</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="3" t="n"/>
-      <c r="C24" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4.4999</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4.4996</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>-4.4997</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>-4.4994</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>4.9999</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>4.9995</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>25.0594</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>24.999</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
-      <c r="C29" s="2" t="n">
-        <v>-45</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-45.0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-450.0</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="B34" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr"/>
       <c r="B35" s="3" t="n"/>
-      <c r="C35" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>500.0</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
-      <c r="C36" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>900.0</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr"/>
       <c r="B37" s="4" t="n"/>
-      <c r="C37" s="2" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-900.0</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -831,10 +1097,10 @@
           <t>mV</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
       <c r="G16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -927,10 +1193,10 @@
           <t>V</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n"/>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="5" t="n"/>
+      <c r="E25" s="5" t="n"/>
+      <c r="F25" s="6" t="n"/>
       <c r="G25" s="2" t="n"/>
     </row>
     <row r="26">
@@ -1132,10 +1398,10 @@
           <t>uA</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
       <c r="G16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -1186,10 +1452,10 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6" t="n"/>
       <c r="G21" s="2" t="n"/>
     </row>
     <row r="22">
@@ -1324,10 +1590,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="5" t="n"/>
+      <c r="F34" s="6" t="n"/>
       <c r="G34" s="2" t="n"/>
     </row>
     <row r="35">
@@ -1489,10 +1755,10 @@
           <t>uA</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
       <c r="G16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -1543,10 +1809,10 @@
           <t>mA</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="5" t="n"/>
+      <c r="E21" s="5" t="n"/>
+      <c r="F21" s="6" t="n"/>
       <c r="G21" s="2" t="n"/>
     </row>
     <row r="22">
@@ -1681,10 +1947,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="5" t="n"/>
+      <c r="E34" s="5" t="n"/>
+      <c r="F34" s="6" t="n"/>
       <c r="G34" s="2" t="n"/>
     </row>
     <row r="35">
@@ -1793,7 +2059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G33"/>
+  <dimension ref="B15:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1846,10 +2112,10 @@
           <t>Ω</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="6" t="n"/>
       <c r="G16" s="2" t="n"/>
     </row>
     <row r="17">
@@ -1880,10 +2146,10 @@
           <t>kΩ</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="6" t="n"/>
       <c r="G19" s="2" t="n"/>
     </row>
     <row r="20">
@@ -1958,10 +2224,10 @@
           <t>MΩ</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
+      <c r="F26" s="6" t="n"/>
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="27">
@@ -2008,9 +2274,6 @@
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
     </row>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B27:B28"/>

--- a/Modele/Sanwa PC5000a.xlsx
+++ b/Modele/Sanwa PC5000a.xlsx
@@ -523,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:G37"/>
+  <dimension ref="A12:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -638,7 +638,11 @@
           <t>-0.0052</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -663,7 +667,11 @@
           <t>-0.007</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0.7217</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -688,7 +696,11 @@
           <t>0.0895</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.299</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -713,7 +725,11 @@
           <t>-0.0645</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1.2989</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -755,7 +771,11 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -780,7 +800,11 @@
           <t>0.0001</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -805,7 +829,11 @@
           <t>0.0003</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -830,7 +858,11 @@
           <t>-0.0003</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0.013</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -859,7 +891,11 @@
           <t>0.0004</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -884,7 +920,11 @@
           <t>0.0604</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -1023,6 +1063,127 @@
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1044,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G37"/>
+  <dimension ref="A15:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1092,6 +1253,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mV</t>
@@ -1101,93 +1263,122 @@
       <c r="D16" s="5" t="n"/>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="6" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>-45</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr"/>
       <c r="B22" s="3" t="n"/>
-      <c r="C22" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="4" t="n"/>
-      <c r="C24" s="2" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>-450</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
           <t>V</t>
@@ -1197,133 +1388,296 @@
       <c r="D25" s="5" t="n"/>
       <c r="E25" s="5" t="n"/>
       <c r="F25" s="6" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
-      <c r="C29" s="2" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="n">
-        <v>-45</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="B34" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr"/>
       <c r="B35" s="3" t="n"/>
-      <c r="C35" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
-      <c r="C36" s="2" t="n">
-        <v>900</v>
-      </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr"/>
       <c r="B37" s="4" t="n"/>
-      <c r="C37" s="2" t="n">
-        <v>-900</v>
-      </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-900</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1345,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G42"/>
+  <dimension ref="A15:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,6 +1747,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>uA</t>
@@ -1402,51 +1757,66 @@
       <c r="D16" s="5" t="n"/>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="6" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-450</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>mA</t>
@@ -1456,135 +1826,178 @@
       <c r="D21" s="5" t="n"/>
       <c r="E21" s="5" t="n"/>
       <c r="F21" s="6" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="3" t="n"/>
-      <c r="C24" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
-      <c r="C29" s="2" t="n">
-        <v>-45</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-450</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
           <t>A</t>
@@ -1594,91 +2007,240 @@
       <c r="D34" s="5" t="n"/>
       <c r="E34" s="5" t="n"/>
       <c r="F34" s="6" t="n"/>
-      <c r="G34" s="2" t="n"/>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="B35" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
-      <c r="C36" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr"/>
       <c r="B37" s="3" t="n"/>
-      <c r="C37" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr"/>
       <c r="B38" s="4" t="n"/>
-      <c r="C38" s="2" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="B39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr"/>
       <c r="B40" s="3" t="n"/>
-      <c r="C40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr"/>
       <c r="B41" s="3" t="n"/>
-      <c r="C41" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr"/>
       <c r="B42" s="4" t="n"/>
-      <c r="C42" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1702,7 +2264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G42"/>
+  <dimension ref="A15:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1750,6 +2312,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>uA</t>
@@ -1759,51 +2322,66 @@
       <c r="D16" s="5" t="n"/>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="6" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
-      <c r="C19" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-450</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>mA</t>
@@ -1813,135 +2391,178 @@
       <c r="D21" s="5" t="n"/>
       <c r="E21" s="5" t="n"/>
       <c r="F21" s="6" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr"/>
       <c r="B24" s="3" t="n"/>
-      <c r="C24" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
-      <c r="C27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
-      <c r="C29" s="2" t="n">
-        <v>-45</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-45</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
-      <c r="C31" s="2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
-      <c r="C32" s="2" t="n">
-        <v>450</v>
-      </c>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="n">
-        <v>-450</v>
-      </c>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-450</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
           <t>A</t>
@@ -1951,91 +2572,240 @@
       <c r="D34" s="5" t="n"/>
       <c r="E34" s="5" t="n"/>
       <c r="F34" s="6" t="n"/>
-      <c r="G34" s="2" t="n"/>
+      <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="B35" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="2" t="n"/>
-      <c r="E35" s="2" t="n"/>
-      <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="n"/>
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr"/>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
-      <c r="C36" s="2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D36" s="2" t="n"/>
-      <c r="E36" s="2" t="n"/>
-      <c r="F36" s="2" t="n"/>
-      <c r="G36" s="2" t="n"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr"/>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr"/>
       <c r="B37" s="3" t="n"/>
-      <c r="C37" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D37" s="2" t="n"/>
-      <c r="E37" s="2" t="n"/>
-      <c r="F37" s="2" t="n"/>
-      <c r="G37" s="2" t="n"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr"/>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr"/>
       <c r="B38" s="4" t="n"/>
-      <c r="C38" s="2" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="D38" s="2" t="n"/>
-      <c r="E38" s="2" t="n"/>
-      <c r="F38" s="2" t="n"/>
-      <c r="G38" s="2" t="n"/>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-4.5</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr"/>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="B39" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2" t="n"/>
-      <c r="E39" s="2" t="n"/>
-      <c r="F39" s="2" t="n"/>
-      <c r="G39" s="2" t="n"/>
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr"/>
       <c r="B40" s="3" t="n"/>
-      <c r="C40" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="n"/>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr"/>
       <c r="B41" s="3" t="n"/>
-      <c r="C41" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="n"/>
-      <c r="E41" s="2" t="n"/>
-      <c r="F41" s="2" t="n"/>
-      <c r="G41" s="2" t="n"/>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr"/>
       <c r="B42" s="4" t="n"/>
-      <c r="C42" s="2" t="n">
-        <v>-9</v>
-      </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2059,7 +2829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B15:G30"/>
+  <dimension ref="A15:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2107,6 +2877,7 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Ω</t>
@@ -2116,31 +2887,40 @@
       <c r="D16" s="5" t="n"/>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="6" t="n"/>
-      <c r="G16" s="2" t="n"/>
+      <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="B17" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr"/>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
-      <c r="C18" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr"/>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
           <t>kΩ</t>
@@ -2150,75 +2930,100 @@
       <c r="D19" s="5" t="n"/>
       <c r="E19" s="5" t="n"/>
       <c r="F19" s="6" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="B20" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr"/>
       <c r="B21" s="4" t="n"/>
-      <c r="C21" s="2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr"/>
       <c r="B23" s="4" t="n"/>
-      <c r="C23" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="B24" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
-      <c r="C25" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
-      <c r="F25" s="2" t="n"/>
-      <c r="G25" s="2" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>MΩ</t>
@@ -2228,51 +3033,67 @@
       <c r="D26" s="5" t="n"/>
       <c r="E26" s="5" t="n"/>
       <c r="F26" s="6" t="n"/>
-      <c r="G26" s="2" t="n"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="B27" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr"/>
       <c r="B28" s="4" t="n"/>
-      <c r="C28" s="2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="B29" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr"/>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr"/>
       <c r="B30" s="4" t="n"/>
-      <c r="C30" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr"/>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Modele/Sanwa PC5000a.xlsx
+++ b/Modele/Sanwa PC5000a.xlsx
@@ -538,35 +538,10 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-    </row>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -599,7 +574,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>mV</t>
@@ -612,7 +586,6 @@
       <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t>500</t>
@@ -645,7 +618,6 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
@@ -674,7 +646,6 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
@@ -703,7 +674,6 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -732,7 +702,6 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>V</t>
@@ -745,7 +714,6 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -778,7 +746,6 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
@@ -807,7 +774,6 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
@@ -836,7 +802,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
@@ -865,7 +830,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>50</t>
@@ -898,7 +862,6 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
@@ -927,7 +890,6 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
@@ -940,7 +902,6 @@
       <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
@@ -953,7 +914,6 @@
       <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
           <t>500</t>
@@ -970,7 +930,6 @@
       <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
@@ -983,7 +942,6 @@
       <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
@@ -996,7 +954,6 @@
       <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
@@ -1009,7 +966,6 @@
       <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
           <t>1000</t>
@@ -1026,7 +982,6 @@
       <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
@@ -1039,7 +994,6 @@
       <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1006,6 @@
       <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
@@ -1064,127 +1017,20 @@
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-    </row>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B21:F21"/>
@@ -1205,7 +1051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A15:G51"/>
+  <dimension ref="A12:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1066,35 @@
     <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
     <row r="15">
+      <c r="A15" t="inlineStr"/>
       <c r="B15" s="1" t="inlineStr">
         <is>
           <t>Zakres</t>
@@ -1274,46 +1148,94 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4.9996</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25.0026</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>24.73</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0.2726</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>45.0064</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>44.86</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.1464</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -1330,7 +1252,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1343,7 +1265,7 @@
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>250.0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1356,7 +1278,7 @@
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>450.0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1369,7 +1291,7 @@
       <c r="B24" s="4" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>-450.0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -1455,7 +1377,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -1468,7 +1390,7 @@
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -1481,7 +1403,7 @@
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -1494,7 +1416,7 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-45.0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -1511,7 +1433,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
@@ -1524,7 +1446,7 @@
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -1537,7 +1459,7 @@
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -1550,7 +1472,7 @@
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-900</t>
+          <t>-900.0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -1558,127 +1480,20 @@
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-    </row>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B17:B20"/>
@@ -1747,7 +1562,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>uA</t>
@@ -1760,7 +1574,6 @@
       <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t>500</t>
@@ -1777,7 +1590,6 @@
       <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
@@ -1790,7 +1602,6 @@
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
@@ -1803,7 +1614,6 @@
       <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -1816,7 +1626,6 @@
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>mA</t>
@@ -1829,7 +1638,6 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -1846,7 +1654,6 @@
       <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
@@ -1859,7 +1666,6 @@
       <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
@@ -1872,7 +1678,6 @@
       <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
@@ -1885,7 +1690,6 @@
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>50</t>
@@ -1902,7 +1706,6 @@
       <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
@@ -1915,7 +1718,6 @@
       <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
@@ -1928,7 +1730,6 @@
       <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
@@ -1941,7 +1742,6 @@
       <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
           <t>500</t>
@@ -1958,7 +1758,6 @@
       <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
@@ -1971,7 +1770,6 @@
       <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
@@ -1984,7 +1782,6 @@
       <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
@@ -1997,7 +1794,6 @@
       <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
           <t>A</t>
@@ -2010,7 +1806,6 @@
       <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -2027,7 +1822,6 @@
       <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
@@ -2040,7 +1834,6 @@
       <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
@@ -2053,7 +1846,6 @@
       <c r="G37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
       <c r="B38" s="4" t="n"/>
       <c r="C38" s="2" t="inlineStr">
         <is>
@@ -2066,7 +1858,6 @@
       <c r="G38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
           <t>10</t>
@@ -2083,7 +1874,6 @@
       <c r="G39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="2" t="inlineStr">
         <is>
@@ -2096,7 +1886,6 @@
       <c r="G40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
       <c r="B41" s="3" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
@@ -2109,7 +1898,6 @@
       <c r="G41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
       <c r="B42" s="4" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
@@ -2121,127 +1909,20 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-    </row>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B21:F21"/>
@@ -2312,7 +1993,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>uA</t>
@@ -2325,7 +2005,6 @@
       <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t>500</t>
@@ -2342,7 +2021,6 @@
       <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
@@ -2355,7 +2033,6 @@
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
@@ -2368,7 +2045,6 @@
       <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
@@ -2381,7 +2057,6 @@
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
           <t>mA</t>
@@ -2394,7 +2069,6 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -2411,7 +2085,6 @@
       <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" s="3" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
@@ -2424,7 +2097,6 @@
       <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
@@ -2437,7 +2109,6 @@
       <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
@@ -2450,7 +2121,6 @@
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>50</t>
@@ -2467,7 +2137,6 @@
       <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
@@ -2480,7 +2149,6 @@
       <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
@@ -2493,7 +2161,6 @@
       <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
@@ -2506,7 +2173,6 @@
       <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
           <t>500</t>
@@ -2523,7 +2189,6 @@
       <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
@@ -2536,7 +2201,6 @@
       <c r="G31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
@@ -2549,7 +2213,6 @@
       <c r="G32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
@@ -2562,7 +2225,6 @@
       <c r="G33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
           <t>A</t>
@@ -2575,7 +2237,6 @@
       <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -2592,7 +2253,6 @@
       <c r="G35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
@@ -2605,7 +2265,6 @@
       <c r="G36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
@@ -2618,7 +2277,6 @@
       <c r="G37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
       <c r="B38" s="4" t="n"/>
       <c r="C38" s="2" t="inlineStr">
         <is>
@@ -2631,7 +2289,6 @@
       <c r="G38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
           <t>10</t>
@@ -2648,7 +2305,6 @@
       <c r="G39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="2" t="inlineStr">
         <is>
@@ -2661,7 +2317,6 @@
       <c r="G40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
       <c r="B41" s="3" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
@@ -2674,7 +2329,6 @@
       <c r="G41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
       <c r="B42" s="4" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
@@ -2686,127 +2340,20 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
-    </row>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B21:F21"/>
@@ -2877,7 +2424,6 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Ω</t>
@@ -2890,7 +2436,6 @@
       <c r="G16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
           <t>50</t>
@@ -2907,7 +2452,6 @@
       <c r="G17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
@@ -2920,7 +2464,6 @@
       <c r="G18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
           <t>kΩ</t>
@@ -2933,7 +2476,6 @@
       <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>0.5</t>
@@ -2950,7 +2492,6 @@
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
@@ -2963,7 +2504,6 @@
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -2980,7 +2520,6 @@
       <c r="G22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" s="4" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
@@ -2993,7 +2532,6 @@
       <c r="G23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t>50</t>
@@ -3010,7 +2548,6 @@
       <c r="G24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
@@ -3023,7 +2560,6 @@
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>MΩ</t>
@@ -3036,7 +2572,6 @@
       <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
           <t>5</t>
@@ -3053,7 +2588,6 @@
       <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" s="4" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
@@ -3066,7 +2600,6 @@
       <c r="G28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
           <t>50</t>
@@ -3083,7 +2616,6 @@
       <c r="G29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" s="4" t="n"/>
       <c r="C30" s="2" t="inlineStr">
         <is>

--- a/Modele/Sanwa PC5000a.xlsx
+++ b/Modele/Sanwa PC5000a.xlsx
@@ -536,6 +536,7 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="12">
@@ -625,22 +626,22 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49.9948</t>
+          <t>49.9969</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0.0052</t>
+          <t>-0.0031</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0.2887</t>
+          <t>0.5774</t>
         </is>
       </c>
     </row>
@@ -654,22 +655,22 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>249.993</t>
+          <t>249.9969</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>250.06</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0.007</t>
+          <t>-0.0631</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0.289</t>
+          <t>0.0279</t>
         </is>
       </c>
     </row>
@@ -683,22 +684,22 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>449.9895</t>
+          <t>449.9892</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>449.9</t>
+          <t>450.11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0.0895</t>
+          <t>-0.1208</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.0362</t>
         </is>
       </c>
     </row>
@@ -707,27 +708,27 @@
       <c r="B20" s="4" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-450.0</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-449.9645</t>
+          <t>-449.9636</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-449.9</t>
+          <t>-450.09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0.0645</t>
+          <t>0.1264</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0.0296</t>
+          <t>0.0142</t>
         </is>
       </c>
     </row>
@@ -758,22 +759,22 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0.4999</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0.4999</t>
+          <t>0.49999</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1e-05</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1e-05</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -792,17 +793,17 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2.4998</t>
+          <t>2.4997</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0002</t>
         </is>
       </c>
     </row>
@@ -831,7 +832,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0002</t>
         </is>
       </c>
     </row>
@@ -848,21 +849,9 @@
           <t>-4.4997</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-4.4994</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0.0003</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -876,26 +865,10 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>4.9999</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>4.9995</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -905,26 +878,10 @@
           <t>25.0</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>25.0594</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>24.999</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
+      <c r="D27" s="2" t="inlineStr"/>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -944,7 +901,7 @@
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-45.0</t>
+          <t>-45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -964,10 +921,26 @@
           <t>50.0</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0.8165</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -1000,7 +973,7 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-450.0</t>
+          <t>-450</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -1056,7 +1029,7 @@
       <c r="B37" s="4" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-900.0</t>
+          <t>-900</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
@@ -1205,7 +1178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A12:G51"/>
+  <dimension ref="A15:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1218,11 +1191,9 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
@@ -1272,32 +1243,32 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>500</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4.9996</t>
+          <t>50.0086</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>49.90</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0.0596</t>
+          <t>0.1086</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0578</t>
         </is>
       </c>
     </row>
@@ -1306,82 +1277,66 @@
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>250.0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>25.0026</t>
+          <t>250.0362</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24.73</t>
+          <t>250.37</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0.2726</t>
+          <t>-0.3338</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0279</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" s="3" t="n"/>
+      <c r="B19" s="4" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>45.0</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>45.0064</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>44.86</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>0.1464</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-45.0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="6" t="n"/>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -1394,7 +1349,7 @@
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>250.0</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -1404,10 +1359,10 @@
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" s="3" t="n"/>
+      <c r="B23" s="4" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>450.0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -1417,10 +1372,14 @@
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" s="4" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-450.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -1430,27 +1389,23 @@
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n"/>
-      <c r="D25" s="5" t="n"/>
-      <c r="E25" s="5" t="n"/>
-      <c r="F25" s="6" t="n"/>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr"/>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B26" s="4" t="n"/>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -1460,10 +1415,14 @@
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
-      <c r="B27" s="3" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -1476,7 +1435,7 @@
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>250.0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -1489,7 +1448,7 @@
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4.5</t>
+          <t>450.0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -1501,12 +1460,12 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -1519,7 +1478,7 @@
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>500.0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -1529,10 +1488,10 @@
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
-      <c r="B32" s="3" t="n"/>
+      <c r="B32" s="4" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>900.0</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -1542,72 +1501,48 @@
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>-45.0</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr"/>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>500.0</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr"/>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>900.0</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr"/>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" s="4" t="n"/>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>-900.0</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1684,61 +1619,16 @@
     <row r="46">
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1763,6 +1653,7 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="15">
@@ -1819,23 +1710,43 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>50.008</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0.028</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr"/>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>249.9992</t>
+        </is>
+      </c>
       <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr"/>
@@ -1845,10 +1756,14 @@
       <c r="B19" s="3" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>450.0101</t>
+        </is>
+      </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr"/>
@@ -1944,7 +1859,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -1957,7 +1872,7 @@
       <c r="B27" s="3" t="n"/>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -1970,7 +1885,7 @@
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -1986,7 +1901,11 @@
           <t>-45</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr"/>
@@ -2000,7 +1919,7 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
@@ -2013,10 +1932,14 @@
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>250</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-0.0008</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr"/>
@@ -2026,10 +1949,14 @@
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>450</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr"/>
@@ -2125,7 +2052,7 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
@@ -2138,7 +2065,7 @@
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
@@ -2151,7 +2078,7 @@
       <c r="B41" s="3" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
@@ -2315,7 +2242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A15:G56"/>
+  <dimension ref="A15:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2328,6 +2255,7 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="15">
@@ -2397,7 +2325,7 @@
       <c r="B18" s="3" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -2407,7 +2335,7 @@
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
-      <c r="B19" s="3" t="n"/>
+      <c r="B19" s="4" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
           <t>450</t>
@@ -2420,40 +2348,40 @@
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-450</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>mA</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="5" t="n"/>
+      <c r="E20" s="5" t="n"/>
+      <c r="F20" s="6" t="n"/>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>mA</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="5" t="n"/>
-      <c r="E21" s="5" t="n"/>
-      <c r="F21" s="6" t="n"/>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -2463,10 +2391,10 @@
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" s="3" t="n"/>
+      <c r="B23" s="4" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -2476,10 +2404,14 @@
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -2489,10 +2421,10 @@
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" s="4" t="n"/>
+      <c r="B25" s="3" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4.5</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
@@ -2502,14 +2434,10 @@
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="B26" s="4" t="n"/>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
@@ -2519,10 +2447,14 @@
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
-      <c r="B27" s="3" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
@@ -2535,7 +2467,7 @@
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
@@ -2548,7 +2480,7 @@
       <c r="B29" s="4" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
@@ -2560,25 +2492,25 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr"/>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="5" t="n"/>
+      <c r="E30" s="5" t="n"/>
+      <c r="F30" s="6" t="n"/>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
-      <c r="B31" s="3" t="n"/>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
@@ -2591,7 +2523,7 @@
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
@@ -2604,7 +2536,7 @@
       <c r="B33" s="4" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-450</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
@@ -2616,25 +2548,25 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C34" s="5" t="n"/>
-      <c r="D34" s="5" t="n"/>
-      <c r="E34" s="5" t="n"/>
-      <c r="F34" s="6" t="n"/>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="B35" s="3" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
@@ -2644,10 +2576,10 @@
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" s="3" t="n"/>
+      <c r="B36" s="4" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
@@ -2657,85 +2589,57 @@
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr"/>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" s="4" t="n"/>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>-4.5</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr"/>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
-      <c r="B40" s="3" t="n"/>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr"/>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
-      <c r="B41" s="3" t="n"/>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
-      <c r="B42" s="4" t="n"/>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -2803,72 +2707,18 @@
     <row r="50">
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr"/>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2893,6 +2743,7 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="15">
@@ -2944,12 +2795,12 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
           <t>50</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
@@ -2962,7 +2813,7 @@
       <c r="B18" s="4" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
@@ -2987,12 +2838,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
           <t>0.5</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0.05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
@@ -3005,7 +2856,7 @@
       <c r="B21" s="4" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
@@ -3017,12 +2868,12 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>0.5</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
@@ -3035,7 +2886,7 @@
       <c r="B23" s="4" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
@@ -3047,12 +2898,12 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
           <t>50</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
@@ -3065,7 +2916,7 @@
       <c r="B25" s="4" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>450</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
